--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2852,28 +2852,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.64102292178289</v>
+        <v>128.7992241895044</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.5967551794424</v>
+        <v>176.2287807567429</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.8464683693756</v>
+        <v>159.4097532600158</v>
       </c>
       <c r="AD2" t="n">
-        <v>97641.02292178289</v>
+        <v>128799.2241895044</v>
       </c>
       <c r="AE2" t="n">
-        <v>133596.7551794424</v>
+        <v>176228.7807567429</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.339679680487077e-06</v>
+        <v>5.645894202081984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>120846.4683693756</v>
+        <v>159409.7532600158</v>
       </c>
     </row>
     <row r="3">
@@ -2958,28 +2958,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.47183635839544</v>
+        <v>100.6299481175659</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.05443138663185</v>
+        <v>137.6863344943839</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.98256986484741</v>
+        <v>124.545743974261</v>
       </c>
       <c r="AD3" t="n">
-        <v>69471.83635839543</v>
+        <v>100629.9481175659</v>
       </c>
       <c r="AE3" t="n">
-        <v>95054.43138663184</v>
+        <v>137686.3344943839</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.050778733919368e-06</v>
+        <v>6.848042433942896e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>5</v>
       </c>
       <c r="AH3" t="n">
-        <v>85982.56986484741</v>
+        <v>124545.743974261</v>
       </c>
     </row>
     <row r="4">
@@ -3064,28 +3064,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.22416520138204</v>
+        <v>99.38227696055246</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.3473126662403</v>
+        <v>135.9792157739924</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.4383761591733</v>
+        <v>123.001550268587</v>
       </c>
       <c r="AD4" t="n">
-        <v>68224.16520138204</v>
+        <v>99382.27696055247</v>
       </c>
       <c r="AE4" t="n">
-        <v>93347.31266624029</v>
+        <v>135979.2157739924</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.210107870263659e-06</v>
+        <v>7.117396244239387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>84438.37615917331</v>
+        <v>123001.550268587</v>
       </c>
     </row>
     <row r="5">
@@ -3170,28 +3170,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.85271935772415</v>
+        <v>98.01083111689459</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.47083995902804</v>
+        <v>134.1027430667802</v>
       </c>
       <c r="AC5" t="n">
-        <v>82.74099137349081</v>
+        <v>121.3041654829045</v>
       </c>
       <c r="AD5" t="n">
-        <v>66852.71935772416</v>
+        <v>98010.83111689459</v>
       </c>
       <c r="AE5" t="n">
-        <v>91470.83995902805</v>
+        <v>134102.7430667802</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.380174100472347e-06</v>
+        <v>7.404901644447448e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>82740.99137349082</v>
+        <v>121304.1654829045</v>
       </c>
     </row>
     <row r="6">
@@ -3276,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.37732158948565</v>
+        <v>87.29163085321862</v>
       </c>
       <c r="AB6" t="n">
-        <v>90.82037975945511</v>
+        <v>119.4362603682859</v>
       </c>
       <c r="AC6" t="n">
-        <v>82.15261018243829</v>
+        <v>108.0374313086121</v>
       </c>
       <c r="AD6" t="n">
-        <v>66377.32158948564</v>
+        <v>87291.63085321862</v>
       </c>
       <c r="AE6" t="n">
-        <v>90820.37975945511</v>
+        <v>119436.2603682859</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.423075792913134e-06</v>
+        <v>7.477429084137598e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>82152.61018243829</v>
+        <v>108037.4313086121</v>
       </c>
     </row>
     <row r="7">
@@ -3382,28 +3382,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.89842169426116</v>
+        <v>86.81273095799415</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.16512779523703</v>
+        <v>118.7810084040678</v>
       </c>
       <c r="AC7" t="n">
-        <v>81.55989454603308</v>
+        <v>107.4447156722068</v>
       </c>
       <c r="AD7" t="n">
-        <v>65898.42169426115</v>
+        <v>86812.73095799415</v>
       </c>
       <c r="AE7" t="n">
-        <v>90165.12779523703</v>
+        <v>118781.0084040678</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.467518024908377e-06</v>
+        <v>7.552560882380276e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH7" t="n">
-        <v>81559.89454603307</v>
+        <v>107444.7156722068</v>
       </c>
     </row>
     <row r="8">
@@ -3488,28 +3488,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>65.29122285834563</v>
+        <v>86.03493992148643</v>
       </c>
       <c r="AB8" t="n">
-        <v>89.33433156021577</v>
+        <v>117.7168003941997</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.80838833765213</v>
+        <v>106.4820741811749</v>
       </c>
       <c r="AD8" t="n">
-        <v>65291.22285834563</v>
+        <v>86034.93992148642</v>
       </c>
       <c r="AE8" t="n">
-        <v>89334.33156021577</v>
+        <v>117716.8003941997</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.508505713660292e-06</v>
+        <v>7.621852603868796e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.496527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>80808.38833765213</v>
+        <v>106482.0741811749</v>
       </c>
     </row>
     <row r="9">
@@ -3594,28 +3594,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>65.01474674435934</v>
+        <v>85.75846380750014</v>
       </c>
       <c r="AB9" t="n">
-        <v>88.95604474379461</v>
+        <v>117.3385135777785</v>
       </c>
       <c r="AC9" t="n">
-        <v>80.46620468406121</v>
+        <v>106.1398905275839</v>
       </c>
       <c r="AD9" t="n">
-        <v>65014.74674435935</v>
+        <v>85758.46380750014</v>
       </c>
       <c r="AE9" t="n">
-        <v>88956.04474379461</v>
+        <v>117338.5135777785</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.520153126352322e-06</v>
+        <v>7.641543132925044e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>80466.20468406122</v>
+        <v>106139.8905275839</v>
       </c>
     </row>
   </sheetData>
@@ -3891,28 +3891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.04113998809899</v>
+        <v>109.1422513190868</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.1475747806667</v>
+        <v>149.3332432710123</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.82612202970195</v>
+        <v>135.0810881237908</v>
       </c>
       <c r="AD2" t="n">
-        <v>79041.13998809899</v>
+        <v>109142.2513190868</v>
       </c>
       <c r="AE2" t="n">
-        <v>108147.5747806667</v>
+        <v>149333.2432710123</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.907887859787678e-06</v>
+        <v>6.767645053832656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>97826.12202970195</v>
+        <v>135081.0881237908</v>
       </c>
     </row>
     <row r="3">
@@ -3997,28 +3997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.35644568801158</v>
+        <v>95.54280836501994</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.42357231319282</v>
+        <v>130.7258854561876</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.88911207841529</v>
+        <v>118.2495904232163</v>
       </c>
       <c r="AD3" t="n">
-        <v>65356.44568801158</v>
+        <v>95542.80836501994</v>
       </c>
       <c r="AE3" t="n">
-        <v>89423.57231319282</v>
+        <v>130725.8854561876</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.410086015433429e-06</v>
+        <v>7.637347303754564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.756944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>80889.11207841529</v>
+        <v>118249.5904232163</v>
       </c>
     </row>
     <row r="4">
@@ -4103,28 +4103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.57838273081469</v>
+        <v>83.67426707251411</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.99074813255581</v>
+        <v>114.4868236567015</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.6884732230873</v>
+        <v>103.5603618902016</v>
       </c>
       <c r="AD4" t="n">
-        <v>63578.38273081469</v>
+        <v>83674.26707251411</v>
       </c>
       <c r="AE4" t="n">
-        <v>86990.7481325558</v>
+        <v>114486.8236567015</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.673499789831906e-06</v>
+        <v>8.093524909505026e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>78688.47322308731</v>
+        <v>103560.3618902016</v>
       </c>
     </row>
     <row r="5">
@@ -4209,28 +4209,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.76557271231073</v>
+        <v>82.86145705401016</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.878625606592</v>
+        <v>113.3747011307377</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.68249011012738</v>
+        <v>102.5543787772417</v>
       </c>
       <c r="AD5" t="n">
-        <v>62765.57271231073</v>
+        <v>82861.45705401016</v>
       </c>
       <c r="AE5" t="n">
-        <v>85878.625606592</v>
+        <v>113374.7011307377</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.774118104793722e-06</v>
+        <v>8.267774802544002e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>77682.49011012737</v>
+        <v>102554.3787772417</v>
       </c>
     </row>
     <row r="6">
@@ -4315,28 +4315,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>62.16837884505164</v>
+        <v>82.26426318675107</v>
       </c>
       <c r="AB6" t="n">
-        <v>85.06151861107453</v>
+        <v>112.5575941352202</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.94336665944496</v>
+        <v>101.8152553265593</v>
       </c>
       <c r="AD6" t="n">
-        <v>62168.37884505164</v>
+        <v>82264.26318675106</v>
       </c>
       <c r="AE6" t="n">
-        <v>85061.51861107453</v>
+        <v>112557.5941352202</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.830644976722114e-06</v>
+        <v>8.36566753103074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>76943.36665944496</v>
+        <v>101815.2553265593</v>
       </c>
     </row>
     <row r="7">
@@ -4421,28 +4421,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.58938263359018</v>
+        <v>81.68526697528961</v>
       </c>
       <c r="AB7" t="n">
-        <v>84.26931045104328</v>
+        <v>111.765385975189</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.2267657343357</v>
+        <v>101.09865440145</v>
       </c>
       <c r="AD7" t="n">
-        <v>61589.38263359018</v>
+        <v>81685.2669752896</v>
       </c>
       <c r="AE7" t="n">
-        <v>84269.31045104327</v>
+        <v>111765.385975189</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.888499904163562e-06</v>
+        <v>8.465860174112424e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>76226.7657343357</v>
+        <v>101098.65440145</v>
       </c>
     </row>
   </sheetData>
@@ -4718,28 +4718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.87706943026118</v>
+        <v>73.02254930967109</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.08522739989418</v>
+        <v>99.91267349296463</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.91919867964381</v>
+        <v>90.37714816313897</v>
       </c>
       <c r="AD2" t="n">
-        <v>54877.06943026118</v>
+        <v>73022.54930967109</v>
       </c>
       <c r="AE2" t="n">
-        <v>75085.22739989418</v>
+        <v>99912.67349296463</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.524746318047297e-06</v>
+        <v>1.045400890235623e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.236111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>67919.19867964381</v>
+        <v>90377.14816313898</v>
       </c>
     </row>
     <row r="3">
@@ -4824,28 +4824,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.35757707260116</v>
+        <v>71.53299220160365</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.69199386890178</v>
+        <v>97.87459574308606</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.89963515581461</v>
+        <v>88.53358169324808</v>
       </c>
       <c r="AD3" t="n">
-        <v>44357.57707260116</v>
+        <v>71532.99220160364</v>
       </c>
       <c r="AE3" t="n">
-        <v>60691.99386890177</v>
+        <v>97874.59574308606</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.855968124313965e-06</v>
+        <v>1.108075183534036e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.993055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>54899.63515581461</v>
+        <v>88533.58169324808</v>
       </c>
     </row>
   </sheetData>
@@ -5121,28 +5121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.25638513175772</v>
+        <v>78.334987544274</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.07720034445197</v>
+        <v>107.1813858537787</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.33930613616175</v>
+        <v>96.95214481794115</v>
       </c>
       <c r="AD2" t="n">
-        <v>59256.38513175772</v>
+        <v>78334.987544274</v>
       </c>
       <c r="AE2" t="n">
-        <v>81077.20034445197</v>
+        <v>107181.3858537787</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.947498100881197e-06</v>
+        <v>9.013267067993568e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.522569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>73339.30613616176</v>
+        <v>96952.14481794115</v>
       </c>
     </row>
     <row r="3">
@@ -5227,28 +5227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.49540418371553</v>
+        <v>76.40341439563962</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.66774852234545</v>
+        <v>104.5385222568253</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.15980901426944</v>
+        <v>94.56151241339781</v>
       </c>
       <c r="AD3" t="n">
-        <v>57495.40418371553</v>
+        <v>76403.41439563961</v>
       </c>
       <c r="AE3" t="n">
-        <v>78667.74852234544</v>
+        <v>104538.5222568253</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.328138327493364e-06</v>
+        <v>9.706710895423432e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.201388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>71159.80901426944</v>
+        <v>94561.51241339781</v>
       </c>
     </row>
     <row r="4">
@@ -5333,28 +5333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.54844342409209</v>
+        <v>75.45645363601618</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.37207503406906</v>
+        <v>103.2428487685489</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.98779278522457</v>
+        <v>93.38949618435295</v>
       </c>
       <c r="AD4" t="n">
-        <v>56548.44342409209</v>
+        <v>75456.45363601617</v>
       </c>
       <c r="AE4" t="n">
-        <v>77372.07503406906</v>
+        <v>103242.8487685489</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.486946781218397e-06</v>
+        <v>9.99602540891943e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.079861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>69987.79278522458</v>
+        <v>93389.49618435295</v>
       </c>
     </row>
   </sheetData>
@@ -5630,28 +5630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.41159675878177</v>
+        <v>68.93164534689559</v>
       </c>
       <c r="AB2" t="n">
-        <v>70.34361480491431</v>
+        <v>94.31531821315265</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.63011893583223</v>
+        <v>85.31399661529301</v>
       </c>
       <c r="AD2" t="n">
-        <v>51411.59675878177</v>
+        <v>68931.64534689559</v>
       </c>
       <c r="AE2" t="n">
-        <v>70343.61480491431</v>
+        <v>94315.31821315266</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.039604513094486e-06</v>
+        <v>1.183567888226654e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.019097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>63630.11893583223</v>
+        <v>85313.99661529301</v>
       </c>
     </row>
     <row r="3">
@@ -5736,28 +5736,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.41488492006476</v>
+        <v>68.65215311212313</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.03391676027382</v>
+        <v>93.93290460720996</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.49524119579862</v>
+        <v>84.96808002718049</v>
       </c>
       <c r="AD3" t="n">
-        <v>42414.88492006476</v>
+        <v>68652.15311212312</v>
       </c>
       <c r="AE3" t="n">
-        <v>58033.91676027382</v>
+        <v>93932.90460720996</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.088883535401979e-06</v>
+        <v>1.193224988826519e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.993055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>52495.24119579862</v>
+        <v>84968.08002718049</v>
       </c>
     </row>
   </sheetData>
@@ -6033,28 +6033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.77805710425322</v>
+        <v>111.3051765743011</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.5241014063628</v>
+        <v>152.2926530267227</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.97583628971844</v>
+        <v>137.7580559659748</v>
       </c>
       <c r="AD2" t="n">
-        <v>80778.05710425322</v>
+        <v>111305.1765743011</v>
       </c>
       <c r="AE2" t="n">
-        <v>110524.1014063628</v>
+        <v>152292.6530267227</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.775031339424223e-06</v>
+        <v>6.494870476407571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.503472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>99975.83628971844</v>
+        <v>137758.0559659748</v>
       </c>
     </row>
     <row r="3">
@@ -6139,28 +6139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.91324025548181</v>
+        <v>96.35501887095802</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.18540320444788</v>
+        <v>131.8371877026102</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.57823489864558</v>
+        <v>119.2548315429632</v>
       </c>
       <c r="AD3" t="n">
-        <v>65913.24025548181</v>
+        <v>96355.01887095803</v>
       </c>
       <c r="AE3" t="n">
-        <v>90185.40320444788</v>
+        <v>131837.1877026102</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.369585135535523e-06</v>
+        <v>7.517789109339583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.756944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>81578.23489864558</v>
+        <v>119254.8315429632</v>
       </c>
     </row>
     <row r="4">
@@ -6245,28 +6245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.41150451257599</v>
+        <v>84.8482583471795</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.13066210910003</v>
+        <v>116.0931303115376</v>
       </c>
       <c r="AC4" t="n">
-        <v>79.7195954095898</v>
+        <v>105.0133648923662</v>
       </c>
       <c r="AD4" t="n">
-        <v>64411.50451257599</v>
+        <v>84848.25834717949</v>
       </c>
       <c r="AE4" t="n">
-        <v>88130.66210910003</v>
+        <v>116093.1303115376</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.602324015877571e-06</v>
+        <v>7.918211979173631e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.513888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>79719.59540958981</v>
+        <v>105013.3648923662</v>
       </c>
     </row>
     <row r="5">
@@ -6351,28 +6351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.60204542952545</v>
+        <v>83.86820706353674</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.02312448085641</v>
+        <v>114.7521809084471</v>
       </c>
       <c r="AC5" t="n">
-        <v>78.71775961814659</v>
+        <v>103.800393818272</v>
       </c>
       <c r="AD5" t="n">
-        <v>63602.04542952545</v>
+        <v>83868.20706353674</v>
       </c>
       <c r="AE5" t="n">
-        <v>87023.12448085641</v>
+        <v>114752.1809084471</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.69770723375166e-06</v>
+        <v>8.082317013016784e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.418402777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>78717.75961814659</v>
+        <v>103800.393818272</v>
       </c>
     </row>
     <row r="6">
@@ -6457,28 +6457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.284125223032</v>
+        <v>83.55028685704332</v>
       </c>
       <c r="AB6" t="n">
-        <v>86.58813202868268</v>
+        <v>114.3171884562734</v>
       </c>
       <c r="AC6" t="n">
-        <v>78.32428223509245</v>
+        <v>103.4069164352178</v>
       </c>
       <c r="AD6" t="n">
-        <v>63284.125223032</v>
+        <v>83550.28685704332</v>
       </c>
       <c r="AE6" t="n">
-        <v>86588.13202868268</v>
+        <v>114317.1884562734</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.716731232299051e-06</v>
+        <v>8.115047445005069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>78324.28223509245</v>
+        <v>103406.9164352178</v>
       </c>
     </row>
     <row r="7">
@@ -6563,28 +6563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.55548441395603</v>
+        <v>82.82164604796733</v>
       </c>
       <c r="AB7" t="n">
-        <v>85.59117352834166</v>
+        <v>113.3202299559323</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.42247205478358</v>
+        <v>102.505106254909</v>
       </c>
       <c r="AD7" t="n">
-        <v>62555.48441395603</v>
+        <v>82821.64604796734</v>
       </c>
       <c r="AE7" t="n">
-        <v>85591.17352834165</v>
+        <v>113320.2299559323</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.783518628457252e-06</v>
+        <v>8.229953904979039e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>77422.47205478359</v>
+        <v>102505.106254909</v>
       </c>
     </row>
   </sheetData>
@@ -6860,28 +6860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>41.1227550815905</v>
+        <v>66.80449982121407</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.26596771037048</v>
+        <v>91.40486386187914</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.89602272198477</v>
+        <v>82.68131194245575</v>
       </c>
       <c r="AD2" t="n">
-        <v>41122.7550815905</v>
+        <v>66804.49982121406</v>
       </c>
       <c r="AE2" t="n">
-        <v>56265.96771037048</v>
+        <v>91404.86386187913</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.247891228477234e-06</v>
+        <v>1.252489998307331e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.975694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>50896.02272198477</v>
+        <v>82681.31194245575</v>
       </c>
     </row>
   </sheetData>
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.09299730843777</v>
+        <v>93.45041168681061</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.69486650085221</v>
+        <v>127.8629760110365</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.32539152255005</v>
+        <v>115.6599130373909</v>
       </c>
       <c r="AD2" t="n">
-        <v>64092.99730843777</v>
+        <v>93450.41168681061</v>
       </c>
       <c r="AE2" t="n">
-        <v>87694.86650085221</v>
+        <v>127862.9760110365</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.369955075199947e-06</v>
+        <v>7.73951515599332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.939236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>79325.39152255005</v>
+        <v>115659.9130373909</v>
       </c>
     </row>
     <row r="3">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.35134478507491</v>
+        <v>80.89459692768396</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.94361656521613</v>
+        <v>110.6835563341548</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.93215561585754</v>
+        <v>100.1200730629984</v>
       </c>
       <c r="AD3" t="n">
-        <v>61351.34478507491</v>
+        <v>80894.59692768396</v>
       </c>
       <c r="AE3" t="n">
-        <v>83943.61656521613</v>
+        <v>110683.5563341548</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.855878814212689e-06</v>
+        <v>8.60012220527151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>75932.15561585754</v>
+        <v>100120.0730629984</v>
       </c>
     </row>
     <row r="4">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.21804686831901</v>
+        <v>79.76129901092807</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.39298835793606</v>
+        <v>109.1329281268748</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.52951718835942</v>
+        <v>98.71743463550031</v>
       </c>
       <c r="AD4" t="n">
-        <v>60218.046868319</v>
+        <v>79761.29901092807</v>
       </c>
       <c r="AE4" t="n">
-        <v>82392.98835793606</v>
+        <v>109132.9281268748</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.034405782836253e-06</v>
+        <v>8.916306732489423e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>74529.51718835942</v>
+        <v>98717.43463550031</v>
       </c>
     </row>
     <row r="5">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.2350831833493</v>
+        <v>78.77833532595835</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.04805407886396</v>
+        <v>107.7879938478027</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.31294154925443</v>
+        <v>97.50085899639531</v>
       </c>
       <c r="AD5" t="n">
-        <v>59235.0831833493</v>
+        <v>78778.33532595835</v>
       </c>
       <c r="AE5" t="n">
-        <v>81048.05407886396</v>
+        <v>107787.9938478027</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.160588723870076e-06</v>
+        <v>9.139786097323488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.184027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>73312.94154925444</v>
+        <v>97500.85899639531</v>
       </c>
     </row>
     <row r="6">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.31005313330306</v>
+        <v>78.85330527591212</v>
       </c>
       <c r="AB6" t="n">
-        <v>81.15063127183141</v>
+        <v>107.8905710407701</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.40572891889309</v>
+        <v>97.59364636603398</v>
       </c>
       <c r="AD6" t="n">
-        <v>59310.05313330307</v>
+        <v>78853.30527591212</v>
       </c>
       <c r="AE6" t="n">
-        <v>81150.63127183141</v>
+        <v>107890.5710407701</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.156732581153151e-06</v>
+        <v>9.132956582033802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.184027777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>73405.72891889309</v>
+        <v>97593.64636603398</v>
       </c>
     </row>
   </sheetData>
@@ -7878,28 +7878,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.44380574334917</v>
+        <v>97.44827863955123</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.9620315975877</v>
+        <v>133.3330339492156</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.84916402058617</v>
+        <v>120.6079163232265</v>
       </c>
       <c r="AD2" t="n">
-        <v>77443.80574334918</v>
+        <v>97448.27863955124</v>
       </c>
       <c r="AE2" t="n">
-        <v>105962.0315975877</v>
+        <v>133333.0339492156</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.039828496285002e-06</v>
+        <v>7.045108142911005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>95849.16402058618</v>
+        <v>120607.9163232265</v>
       </c>
     </row>
     <row r="3">
@@ -7984,28 +7984,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.78793559721813</v>
+        <v>83.87765983944077</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.27746760918885</v>
+        <v>114.765114613466</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.94782859528388</v>
+        <v>103.8120931486364</v>
       </c>
       <c r="AD3" t="n">
-        <v>63787.93559721813</v>
+        <v>83877.65983944076</v>
       </c>
       <c r="AE3" t="n">
-        <v>87277.46760918884</v>
+        <v>114765.114613466</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.587431220995784e-06</v>
+        <v>8.000079478572383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>78947.82859528388</v>
+        <v>103812.0931486364</v>
       </c>
     </row>
     <row r="4">
@@ -8090,28 +8090,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>62.66571954612326</v>
+        <v>82.5848515877537</v>
       </c>
       <c r="AB4" t="n">
-        <v>85.74200209940359</v>
+        <v>112.9962373288339</v>
       </c>
       <c r="AC4" t="n">
-        <v>77.55890575871265</v>
+        <v>102.2120350294142</v>
       </c>
       <c r="AD4" t="n">
-        <v>62665.71954612326</v>
+        <v>82584.8515877537</v>
       </c>
       <c r="AE4" t="n">
-        <v>85742.00209940359</v>
+        <v>112996.2373288339</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.759865749133067e-06</v>
+        <v>8.300790238798003e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>77558.90575871266</v>
+        <v>102212.0350294142</v>
       </c>
     </row>
     <row r="5">
@@ -8196,28 +8196,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.63427270328715</v>
+        <v>81.55340474491759</v>
       </c>
       <c r="AB5" t="n">
-        <v>84.33073102481275</v>
+        <v>111.584966254243</v>
       </c>
       <c r="AC5" t="n">
-        <v>76.28232441474893</v>
+        <v>100.9354536854505</v>
       </c>
       <c r="AD5" t="n">
-        <v>61634.27270328715</v>
+        <v>81553.40474491759</v>
       </c>
       <c r="AE5" t="n">
-        <v>84330.73102481275</v>
+        <v>111584.966254243</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.889276960594876e-06</v>
+        <v>8.526472091503377e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.331597222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>76282.32441474893</v>
+        <v>100935.4536854505</v>
       </c>
     </row>
     <row r="6">
@@ -8302,28 +8302,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.24739649996782</v>
+        <v>81.16652854159825</v>
       </c>
       <c r="AB6" t="n">
-        <v>83.80138993565801</v>
+        <v>111.0556251650883</v>
       </c>
       <c r="AC6" t="n">
-        <v>75.80350289620806</v>
+        <v>100.4566321669096</v>
       </c>
       <c r="AD6" t="n">
-        <v>61247.39649996782</v>
+        <v>81166.52854159825</v>
       </c>
       <c r="AE6" t="n">
-        <v>83801.38993565801</v>
+        <v>111055.6251650883</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.912823999636523e-06</v>
+        <v>8.567536071483298e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>75803.50289620805</v>
+        <v>100456.6321669096</v>
       </c>
     </row>
     <row r="7">
@@ -8408,28 +8408,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.23708368527623</v>
+        <v>81.15621572690667</v>
       </c>
       <c r="AB7" t="n">
-        <v>83.7872794876277</v>
+        <v>111.041514717058</v>
       </c>
       <c r="AC7" t="n">
-        <v>75.79073912953362</v>
+        <v>100.4438684002351</v>
       </c>
       <c r="AD7" t="n">
-        <v>61237.08368527623</v>
+        <v>81156.21572690667</v>
       </c>
       <c r="AE7" t="n">
-        <v>83787.2794876277</v>
+        <v>111041.514717058</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.91036204213838e-06</v>
+        <v>8.563242632582707e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>75790.73912953361</v>
+        <v>100443.8684002352</v>
       </c>
     </row>
   </sheetData>
@@ -8705,28 +8705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.52958654777962</v>
+        <v>116.5418625193273</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.025353613677</v>
+        <v>159.4577177629828</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.8566181109334</v>
+        <v>144.2392969800401</v>
       </c>
       <c r="AD2" t="n">
-        <v>85529.58654777962</v>
+        <v>116541.8625193273</v>
       </c>
       <c r="AE2" t="n">
-        <v>117025.353613677</v>
+        <v>159457.7177629829</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.437549705950181e-06</v>
+        <v>5.843606671768976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>105856.6181109334</v>
+        <v>144239.2969800401</v>
       </c>
     </row>
     <row r="3">
@@ -8811,28 +8811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.23983438112285</v>
+        <v>99.16676949809887</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.36875192923705</v>
+        <v>135.6843489563453</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.45776928899987</v>
+        <v>122.7348251261678</v>
       </c>
       <c r="AD3" t="n">
-        <v>68239.83438112284</v>
+        <v>99166.76949809887</v>
       </c>
       <c r="AE3" t="n">
-        <v>93368.75192923706</v>
+        <v>135684.3489563453</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.149180656548174e-06</v>
+        <v>7.053332123463141e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>84457.76928899987</v>
+        <v>122734.8251261678</v>
       </c>
     </row>
     <row r="4">
@@ -8917,28 +8917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.9188231863502</v>
+        <v>97.84575830332624</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.56128613364925</v>
+        <v>133.8768831607575</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.82280549214821</v>
+        <v>121.0998613293161</v>
       </c>
       <c r="AD4" t="n">
-        <v>66918.8231863502</v>
+        <v>97845.75830332623</v>
       </c>
       <c r="AE4" t="n">
-        <v>91561.28613364925</v>
+        <v>133876.8831607575</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.34476976229178e-06</v>
+        <v>7.385820640289617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.704861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>82822.80549214821</v>
+        <v>121099.8613293161</v>
       </c>
     </row>
     <row r="5">
@@ -9023,28 +9023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.18827633699415</v>
+        <v>86.94846783926421</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.56171970490847</v>
+        <v>118.96672959331</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.91863628046585</v>
+        <v>107.6127118918091</v>
       </c>
       <c r="AD5" t="n">
-        <v>66188.27633699415</v>
+        <v>86948.46783926421</v>
       </c>
       <c r="AE5" t="n">
-        <v>90561.71970490846</v>
+        <v>118966.72959331</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.432294298965209e-06</v>
+        <v>7.534606551825103e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>81918.63628046584</v>
+        <v>107612.7118918091</v>
       </c>
     </row>
     <row r="6">
@@ -9129,28 +9129,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.57189331604833</v>
+        <v>86.33208481831838</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.7183572627511</v>
+        <v>118.1233671511526</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.15576316612108</v>
+        <v>106.8498387774644</v>
       </c>
       <c r="AD6" t="n">
-        <v>65571.89331604833</v>
+        <v>86332.08481831838</v>
       </c>
       <c r="AE6" t="n">
-        <v>89718.3572627511</v>
+        <v>118123.3671511526</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.484150234134091e-06</v>
+        <v>7.622758204788602e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>81155.76316612108</v>
+        <v>106849.8387774644</v>
       </c>
     </row>
     <row r="7">
@@ -9235,28 +9235,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>64.91475100215224</v>
+        <v>85.50435030383009</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.81922615780611</v>
+        <v>116.9908242713608</v>
       </c>
       <c r="AC7" t="n">
-        <v>80.34244387189334</v>
+        <v>105.8253842005856</v>
       </c>
       <c r="AD7" t="n">
-        <v>64914.75100215225</v>
+        <v>85504.3503038301</v>
       </c>
       <c r="AE7" t="n">
-        <v>88819.22615780612</v>
+        <v>116990.8242713608</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.545770331324335e-06</v>
+        <v>7.727508286055115e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.496527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>80342.44387189334</v>
+        <v>105825.3842005856</v>
       </c>
     </row>
     <row r="8">
@@ -9341,28 +9341,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.24936627145698</v>
+        <v>84.83896557313483</v>
       </c>
       <c r="AB8" t="n">
-        <v>87.90881741456674</v>
+        <v>116.0804155281214</v>
       </c>
       <c r="AC8" t="n">
-        <v>79.51892326134174</v>
+        <v>105.001863590034</v>
       </c>
       <c r="AD8" t="n">
-        <v>64249.36627145698</v>
+        <v>84838.96557313483</v>
       </c>
       <c r="AE8" t="n">
-        <v>87908.81741456674</v>
+        <v>116080.4155281214</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.599085008771106e-06</v>
+        <v>7.818139704210872e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>79518.92326134174</v>
+        <v>105001.863590034</v>
       </c>
     </row>
     <row r="9">
@@ -9447,28 +9447,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>64.33123734687751</v>
+        <v>84.92083664855538</v>
       </c>
       <c r="AB9" t="n">
-        <v>88.02083703185401</v>
+        <v>116.1924351454087</v>
       </c>
       <c r="AC9" t="n">
-        <v>79.62025188357566</v>
+        <v>105.1031922122679</v>
       </c>
       <c r="AD9" t="n">
-        <v>64331.23734687752</v>
+        <v>84920.83664855539</v>
       </c>
       <c r="AE9" t="n">
-        <v>88020.83703185401</v>
+        <v>116192.4351454087</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.593838242190952e-06</v>
+        <v>7.809220548761297e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>79620.25188357566</v>
+        <v>105103.1922122679</v>
       </c>
     </row>
   </sheetData>
@@ -9744,28 +9744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.73367237028623</v>
+        <v>89.4727705991762</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.09848991751895</v>
+        <v>122.4205919937979</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.16768666927359</v>
+        <v>110.7369425123219</v>
       </c>
       <c r="AD2" t="n">
-        <v>60733.67237028623</v>
+        <v>89472.7705991762</v>
       </c>
       <c r="AE2" t="n">
-        <v>83098.48991751895</v>
+        <v>122420.5919937979</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.763908977099524e-06</v>
+        <v>8.590455216856701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>75167.68666927359</v>
+        <v>110736.9425123219</v>
       </c>
     </row>
     <row r="3">
@@ -9850,28 +9850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.03179818420146</v>
+        <v>78.16283956048861</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.76991057472883</v>
+        <v>106.9458453877306</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.06134367077699</v>
+        <v>96.73908400338949</v>
       </c>
       <c r="AD3" t="n">
-        <v>59031.79818420146</v>
+        <v>78162.8395604886</v>
       </c>
       <c r="AE3" t="n">
-        <v>80769.91057472883</v>
+        <v>106945.8453877306</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.114331531653295e-06</v>
+        <v>9.2223500066903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>73061.34367077699</v>
+        <v>96739.08400338949</v>
       </c>
     </row>
     <row r="4">
@@ -9956,28 +9956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.76508336162819</v>
+        <v>76.89612473791533</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.03673547097104</v>
+        <v>105.2126702839728</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.49358036639474</v>
+        <v>95.17132069900725</v>
       </c>
       <c r="AD4" t="n">
-        <v>57765.08336162819</v>
+        <v>76896.12473791534</v>
       </c>
       <c r="AE4" t="n">
-        <v>79036.73547097103</v>
+        <v>105212.6702839728</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.318267429603814e-06</v>
+        <v>9.590094690074244e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.157986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>71493.58036639474</v>
+        <v>95171.32069900725</v>
       </c>
     </row>
     <row r="5">
@@ -10062,28 +10062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.73358376434252</v>
+        <v>76.86462514062967</v>
       </c>
       <c r="AB5" t="n">
-        <v>78.99363633230064</v>
+        <v>105.1695711453024</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.45459454902904</v>
+        <v>95.13233488164153</v>
       </c>
       <c r="AD5" t="n">
-        <v>57733.58376434252</v>
+        <v>76864.62514062967</v>
       </c>
       <c r="AE5" t="n">
-        <v>78993.63633230064</v>
+        <v>105169.5711453024</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.321983685357781e-06</v>
+        <v>9.596795978613194e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>71454.59454902903</v>
+        <v>95132.33488164152</v>
       </c>
     </row>
   </sheetData>
@@ -10359,28 +10359,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.62529370903786</v>
+        <v>75.04348336196951</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.47722498432709</v>
+        <v>102.6778046206359</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.08290737180891</v>
+        <v>92.87837905687213</v>
       </c>
       <c r="AD2" t="n">
-        <v>56625.29370903785</v>
+        <v>75043.48336196951</v>
       </c>
       <c r="AE2" t="n">
-        <v>77477.2249843271</v>
+        <v>102677.8046206359</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.26282245704287e-06</v>
+        <v>9.818744481862798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>70082.90737180892</v>
+        <v>92878.37905687213</v>
       </c>
     </row>
     <row r="3">
@@ -10465,28 +10465,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.82642687796037</v>
+        <v>73.24461653089203</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.01593602564451</v>
+        <v>100.2165156619533</v>
       </c>
       <c r="AC3" t="n">
-        <v>67.85652037690146</v>
+        <v>90.65199206196468</v>
       </c>
       <c r="AD3" t="n">
-        <v>54826.42687796037</v>
+        <v>73244.61653089203</v>
       </c>
       <c r="AE3" t="n">
-        <v>75015.93602564451</v>
+        <v>100216.5156619533</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.658099561515134e-06</v>
+        <v>1.055620521135214e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.071180555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>67856.52037690146</v>
+        <v>90651.99206196467</v>
       </c>
     </row>
     <row r="4">
@@ -10571,28 +10571,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>54.65513337546417</v>
+        <v>73.07332302839582</v>
       </c>
       <c r="AB4" t="n">
-        <v>74.78156469859334</v>
+        <v>99.98214433490216</v>
       </c>
       <c r="AC4" t="n">
-        <v>67.64451712036175</v>
+        <v>90.43998880542496</v>
       </c>
       <c r="AD4" t="n">
-        <v>54655.13337546417</v>
+        <v>73073.32302839583</v>
       </c>
       <c r="AE4" t="n">
-        <v>74781.56469859334</v>
+        <v>99982.14433490216</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.718764574597543e-06</v>
+        <v>1.066938673463304e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.027777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>67644.51712036175</v>
+        <v>90439.98880542496</v>
       </c>
     </row>
   </sheetData>
@@ -18681,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.94872419538299</v>
+        <v>70.79711814234759</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.44678037694753</v>
+        <v>96.86774039074015</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.5325613374827</v>
+        <v>87.62281920259939</v>
       </c>
       <c r="AD2" t="n">
-        <v>52948.72419538299</v>
+        <v>70797.11814234758</v>
       </c>
       <c r="AE2" t="n">
-        <v>72446.78037694753</v>
+        <v>96867.74039074015</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.849916705232132e-06</v>
+        <v>1.124960676017789e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.071180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>65532.5613374827</v>
+        <v>87622.81920259939</v>
       </c>
     </row>
     <row r="3">
@@ -18787,28 +18787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.43109373675752</v>
+        <v>70.16087996709201</v>
       </c>
       <c r="AB3" t="n">
-        <v>59.42433849524107</v>
+        <v>95.99721125050863</v>
       </c>
       <c r="AC3" t="n">
-        <v>53.7529630318502</v>
+        <v>86.83537214171595</v>
       </c>
       <c r="AD3" t="n">
-        <v>43431.09373675752</v>
+        <v>70160.87996709201</v>
       </c>
       <c r="AE3" t="n">
-        <v>59424.33849524107</v>
+        <v>95997.21125050863</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.977401843972297e-06</v>
+        <v>1.149476540958411e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>53752.9630318502</v>
+        <v>86835.37214171595</v>
       </c>
     </row>
   </sheetData>
@@ -19084,28 +19084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.33915119421163</v>
+        <v>65.05803334839608</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.13975923673965</v>
+        <v>89.01527138510784</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.82747344293448</v>
+        <v>80.51977881785267</v>
       </c>
       <c r="AD2" t="n">
-        <v>48339.15119421163</v>
+        <v>65058.03334839609</v>
       </c>
       <c r="AE2" t="n">
-        <v>66139.75923673964</v>
+        <v>89015.27138510784</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.296261097083417e-06</v>
+        <v>1.298666386596689e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>59827.47344293448</v>
+        <v>80519.77881785267</v>
       </c>
     </row>
   </sheetData>
@@ -19381,28 +19381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.55846413162398</v>
+        <v>95.37900558054953</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.3824240290249</v>
+        <v>130.5017632600065</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.51575057786424</v>
+        <v>118.0468581348812</v>
       </c>
       <c r="AD2" t="n">
-        <v>75558.46413162397</v>
+        <v>95379.00558054954</v>
       </c>
       <c r="AE2" t="n">
-        <v>103382.4240290249</v>
+        <v>130501.7632600065</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.221840856908008e-06</v>
+        <v>7.417607843356089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.060763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>93515.75057786424</v>
+        <v>118046.8581348812</v>
       </c>
     </row>
     <row r="3">
@@ -19487,28 +19487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.42407506509487</v>
+        <v>82.32986786004101</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.41137345985859</v>
+        <v>112.6473573434894</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.25983185248555</v>
+        <v>101.8964516602148</v>
       </c>
       <c r="AD3" t="n">
-        <v>62424.07506509487</v>
+        <v>82329.86786004101</v>
       </c>
       <c r="AE3" t="n">
-        <v>85411.3734598586</v>
+        <v>112647.3573434894</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.743077661209562e-06</v>
+        <v>8.333400346881363e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.505208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>77259.83185248554</v>
+        <v>101896.4516602147</v>
       </c>
     </row>
     <row r="4">
@@ -19593,28 +19593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.18466019793321</v>
+        <v>80.91986079228714</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.71555135948398</v>
+        <v>110.7181234682679</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.72585663326888</v>
+        <v>100.151341158347</v>
       </c>
       <c r="AD4" t="n">
-        <v>61184.66019793321</v>
+        <v>80919.86079228715</v>
       </c>
       <c r="AE4" t="n">
-        <v>83715.55135948399</v>
+        <v>110718.1234682679</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.939464681231927e-06</v>
+        <v>8.678444594029537e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>75725.85663326888</v>
+        <v>100151.341158347</v>
       </c>
     </row>
     <row r="5">
@@ -19699,28 +19699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.63477276375743</v>
+        <v>80.36997335811137</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.9631711127236</v>
+        <v>109.9657432215075</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.04528250128674</v>
+        <v>99.47076702636494</v>
       </c>
       <c r="AD5" t="n">
-        <v>60634.77276375743</v>
+        <v>80369.97335811137</v>
       </c>
       <c r="AE5" t="n">
-        <v>82963.1711127236</v>
+        <v>109965.7432215075</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.969672387583617e-06</v>
+        <v>8.731518342462632e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>75045.28250128674</v>
+        <v>99470.76702636493</v>
       </c>
     </row>
     <row r="6">
@@ -19805,28 +19805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.26627150778051</v>
+        <v>80.00147210213444</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.45897143716819</v>
+        <v>109.4615435459521</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.5892029351175</v>
+        <v>99.01468746019567</v>
       </c>
       <c r="AD6" t="n">
-        <v>60266.27150778051</v>
+        <v>80001.47210213444</v>
       </c>
       <c r="AE6" t="n">
-        <v>82458.97143716819</v>
+        <v>109461.5435459521</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.036021017263983e-06</v>
+        <v>8.848090267505172e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>74589.2029351175</v>
+        <v>99014.68746019568</v>
       </c>
     </row>
   </sheetData>
@@ -20102,28 +20102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.90454516743081</v>
+        <v>113.6782654846771</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.4336561884332</v>
+        <v>155.5396179671914</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.6077072469748</v>
+        <v>140.6951351296701</v>
       </c>
       <c r="AD2" t="n">
-        <v>82904.54516743081</v>
+        <v>113678.2654846771</v>
       </c>
       <c r="AE2" t="n">
-        <v>113433.6561884332</v>
+        <v>155539.6179671914</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.612162622665822e-06</v>
+        <v>6.17639553670287e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>102607.7072469748</v>
+        <v>140695.1351296701</v>
       </c>
     </row>
     <row r="3">
@@ -20208,28 +20208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.78026625794924</v>
+        <v>97.46864572062387</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.37170643151087</v>
+        <v>133.3609010880714</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.65131901070509</v>
+        <v>120.6331238614617</v>
       </c>
       <c r="AD3" t="n">
-        <v>66780.26625794923</v>
+        <v>97468.64572062387</v>
       </c>
       <c r="AE3" t="n">
-        <v>91371.70643151087</v>
+        <v>133360.9010880714</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.295408168300402e-06</v>
+        <v>7.344669277217669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>82651.31901070509</v>
+        <v>120633.1238614617</v>
       </c>
     </row>
     <row r="4">
@@ -20314,28 +20314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.80839674502909</v>
+        <v>96.49677620770372</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.0419516880773</v>
+        <v>132.0311463446378</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.44847419366189</v>
+        <v>119.4302790444185</v>
       </c>
       <c r="AD4" t="n">
-        <v>65808.39674502908</v>
+        <v>96496.77620770372</v>
       </c>
       <c r="AE4" t="n">
-        <v>90041.9516880773</v>
+        <v>132031.1463446378</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.443824284046581e-06</v>
+        <v>7.598444295296161e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>81448.4741936619</v>
+        <v>119430.2790444185</v>
       </c>
     </row>
     <row r="5">
@@ -20420,28 +20420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.02701178921772</v>
+        <v>85.62816618862017</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.97282631926541</v>
+        <v>117.1602346273018</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.4813846495222</v>
+        <v>105.9786262699246</v>
       </c>
       <c r="AD5" t="n">
-        <v>65027.01178921772</v>
+        <v>85628.16618862018</v>
       </c>
       <c r="AE5" t="n">
-        <v>88972.82631926541</v>
+        <v>117160.2346273018</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.535137204364203e-06</v>
+        <v>7.754579212908712e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>80481.3846495222</v>
+        <v>105978.6262699246</v>
       </c>
     </row>
     <row r="6">
@@ -20526,28 +20526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.12776617689433</v>
+        <v>84.55832837570459</v>
       </c>
       <c r="AB6" t="n">
-        <v>87.74243880056866</v>
+        <v>115.6964353337582</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.36842358874972</v>
+        <v>104.6545299265011</v>
       </c>
       <c r="AD6" t="n">
-        <v>64127.76617689432</v>
+        <v>84558.32837570459</v>
       </c>
       <c r="AE6" t="n">
-        <v>87742.43880056866</v>
+        <v>115696.4353337582</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.642368796942963e-06</v>
+        <v>7.937933286072839e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.435763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>79368.42358874972</v>
+        <v>104654.5299265011</v>
       </c>
     </row>
     <row r="7">
@@ -20632,28 +20632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.83623441569497</v>
+        <v>84.26679661450525</v>
       </c>
       <c r="AB7" t="n">
-        <v>87.34355218342232</v>
+        <v>115.2975487166118</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.00760615050284</v>
+        <v>104.2937124882542</v>
       </c>
       <c r="AD7" t="n">
-        <v>63836.23441569498</v>
+        <v>84266.79661450525</v>
       </c>
       <c r="AE7" t="n">
-        <v>87343.55218342232</v>
+        <v>115297.5487166118</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.629534219158647e-06</v>
+        <v>7.915987588377752e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>79007.60615050283</v>
+        <v>104293.7124882542</v>
       </c>
     </row>
     <row r="8">
@@ -20738,28 +20738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.47066146477554</v>
+        <v>83.90122366358581</v>
       </c>
       <c r="AB8" t="n">
-        <v>86.84335914403425</v>
+        <v>114.7973556772238</v>
       </c>
       <c r="AC8" t="n">
-        <v>78.55515083276846</v>
+        <v>103.8412571705198</v>
       </c>
       <c r="AD8" t="n">
-        <v>63470.66146477554</v>
+        <v>83901.22366358581</v>
       </c>
       <c r="AE8" t="n">
-        <v>86843.35914403426</v>
+        <v>114797.3556772238</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.684383653238756e-06</v>
+        <v>8.009774008102414e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>78555.15083276846</v>
+        <v>103841.2571705198</v>
       </c>
     </row>
   </sheetData>
@@ -21035,28 +21035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>46.37689502115303</v>
+        <v>62.56750060862674</v>
       </c>
       <c r="AB2" t="n">
-        <v>63.45491377212957</v>
+        <v>85.60761461600723</v>
       </c>
       <c r="AC2" t="n">
-        <v>57.39886586126167</v>
+        <v>77.43734402811761</v>
       </c>
       <c r="AD2" t="n">
-        <v>46376.89502115303</v>
+        <v>62567.50060862674</v>
       </c>
       <c r="AE2" t="n">
-        <v>63454.91377212957</v>
+        <v>85607.61461600722</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.270588115749544e-06</v>
+        <v>1.344075850512487e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>57398.86586126167</v>
+        <v>77437.3440281176</v>
       </c>
     </row>
   </sheetData>
@@ -21332,28 +21332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.20920127934819</v>
+        <v>76.88043788348615</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.64439719909495</v>
+        <v>105.1912068376877</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.04324771204531</v>
+        <v>95.15190569391139</v>
       </c>
       <c r="AD2" t="n">
-        <v>58209.20127934818</v>
+        <v>76880.43788348616</v>
       </c>
       <c r="AE2" t="n">
-        <v>79644.39719909495</v>
+        <v>105191.2068376877</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.057301644286526e-06</v>
+        <v>9.317737089268587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>72043.24771204531</v>
+        <v>95151.90569391139</v>
       </c>
     </row>
     <row r="3">
@@ -21438,28 +21438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.06155538753896</v>
+        <v>74.73279199167693</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.70589334247322</v>
+        <v>102.2527029810659</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.38519053928258</v>
+        <v>92.49384852114865</v>
       </c>
       <c r="AD3" t="n">
-        <v>56061.55538753896</v>
+        <v>74732.79199167693</v>
       </c>
       <c r="AE3" t="n">
-        <v>76705.89334247322</v>
+        <v>102252.7029810659</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.525175008708945e-06</v>
+        <v>1.017976219818904e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.105902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>69385.19053928257</v>
+        <v>92493.84852114865</v>
       </c>
     </row>
     <row r="4">
@@ -21544,28 +21544,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.84515678762067</v>
+        <v>74.51639339175864</v>
       </c>
       <c r="AB4" t="n">
-        <v>76.40980723123273</v>
+        <v>101.9566168698254</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.1173624709393</v>
+        <v>92.22602045280539</v>
       </c>
       <c r="AD4" t="n">
-        <v>55845.15678762068</v>
+        <v>74516.39339175864</v>
       </c>
       <c r="AE4" t="n">
-        <v>76409.80723123273</v>
+        <v>101956.6168698254</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.541452727256729e-06</v>
+        <v>1.020975279643874e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.097222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>69117.3624709393</v>
+        <v>92226.02045280539</v>
       </c>
     </row>
   </sheetData>
@@ -21841,28 +21841,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.52658464531431</v>
+        <v>91.58253651344943</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.55163158991827</v>
+        <v>125.3072667940082</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.38670394346586</v>
+        <v>113.3481171210746</v>
       </c>
       <c r="AD2" t="n">
-        <v>62526.58464531431</v>
+        <v>91582.53651344942</v>
       </c>
       <c r="AE2" t="n">
-        <v>85551.63158991827</v>
+        <v>125307.2667940082</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.536187947623016e-06</v>
+        <v>8.103568725231738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>77386.70394346587</v>
+        <v>113348.1171210746</v>
       </c>
     </row>
     <row r="3">
@@ -21947,28 +21947,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.8704570349925</v>
+        <v>79.21273417077641</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.91740061339779</v>
+        <v>108.3823575116069</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.09931887066814</v>
+        <v>98.0384974263209</v>
       </c>
       <c r="AD3" t="n">
-        <v>59870.45703499251</v>
+        <v>79212.73417077641</v>
       </c>
       <c r="AE3" t="n">
-        <v>81917.40061339778</v>
+        <v>108382.3575116069</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.050192818460566e-06</v>
+        <v>9.02180091579134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>74099.31887066814</v>
+        <v>98038.4974263209</v>
       </c>
     </row>
     <row r="4">
@@ -22053,28 +22053,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.07114682374007</v>
+        <v>78.41342395952398</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.82374911928495</v>
+        <v>107.2887060174941</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.11004394020358</v>
+        <v>97.04922249585634</v>
       </c>
       <c r="AD4" t="n">
-        <v>59071.14682374006</v>
+        <v>78413.42395952398</v>
       </c>
       <c r="AE4" t="n">
-        <v>80823.74911928496</v>
+        <v>107288.7060174941</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.153079321750615e-06</v>
+        <v>9.205600145438907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.236111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>73110.04394020358</v>
+        <v>97049.22249585635</v>
       </c>
     </row>
     <row r="5">
@@ -22159,28 +22159,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.34433439688008</v>
+        <v>77.68661153266399</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.82929229215436</v>
+        <v>106.2942491903635</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.21049667692509</v>
+        <v>96.14967523257785</v>
       </c>
       <c r="AD5" t="n">
-        <v>58344.33439688008</v>
+        <v>77686.61153266398</v>
       </c>
       <c r="AE5" t="n">
-        <v>79829.29229215436</v>
+        <v>106294.2491903635</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.266355097866773e-06</v>
+        <v>9.407959052799055e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.149305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>72210.49667692509</v>
+        <v>96149.67523257785</v>
       </c>
     </row>
   </sheetData>
